--- a/TPs/TP1/TABLA100/AG_TP1_Torneo_c_Elitismo.xlsx
+++ b/TPs/TP1/TABLA100/AG_TP1_Torneo_c_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9772865524995162</v>
+        <v>0.9786152521974605</v>
       </c>
       <c r="C2">
-        <v>0.001723061615328556</v>
+        <v>0.01737813809138321</v>
       </c>
       <c r="D2">
-        <v>0.4547549581246041</v>
+        <v>0.2794867424089306</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9772865580236265</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="C3">
-        <v>0.8371150015905946</v>
+        <v>0.2328856119588803</v>
       </c>
       <c r="D3">
-        <v>0.8931837096965307</v>
+        <v>0.5855396897739147</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9772865580236265</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="C4">
-        <v>0.8372274831198431</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="D4">
-        <v>0.9632803780105711</v>
+        <v>0.9824833240981864</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9792183226711992</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="C5">
-        <v>0.9772262154152962</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="D5">
-        <v>0.9774736611905082</v>
+        <v>0.9824833240981864</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9792183282007665</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="C6">
-        <v>0.9772827869012825</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="D6">
-        <v>0.9782535716919378</v>
+        <v>0.9824833240981864</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9792192663842421</v>
+        <v>0.9824833831784882</v>
       </c>
       <c r="C7">
-        <v>0.2396637139842703</v>
+        <v>0.9824228268014152</v>
       </c>
       <c r="D7">
-        <v>0.8930562817036881</v>
+        <v>0.9824772802765395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.979219271913812</v>
+        <v>0.9824833831784882</v>
       </c>
       <c r="C8">
-        <v>0.8594302517147228</v>
+        <v>0.9824833240981864</v>
       </c>
       <c r="D8">
-        <v>0.9672398012699294</v>
+        <v>0.982483341822277</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.979219271913812</v>
+        <v>0.9824833831784882</v>
       </c>
       <c r="C9">
-        <v>0.9792183282007665</v>
+        <v>0.5493818838499093</v>
       </c>
       <c r="D9">
-        <v>0.9792190697159164</v>
+        <v>0.9391732214295698</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.979219271913812</v>
+        <v>0.9824833831784882</v>
       </c>
       <c r="C10">
-        <v>0.9792192663842421</v>
+        <v>0.9824833794859692</v>
       </c>
       <c r="D10">
-        <v>0.979219271360855</v>
+        <v>0.9824833828092363</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9801858727237819</v>
+        <v>0.9824833979485639</v>
       </c>
       <c r="C11">
-        <v>0.8594275993922494</v>
+        <v>0.9824833831784882</v>
       </c>
       <c r="D11">
-        <v>0.9673356381860246</v>
+        <v>0.9824833846554958</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9801858727237819</v>
+        <v>0.9824833979485639</v>
       </c>
       <c r="C12">
-        <v>0.979219271913812</v>
+        <v>0.9824833831784882</v>
       </c>
       <c r="D12">
-        <v>0.9795032154029648</v>
+        <v>0.9824833876095107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9801858727237819</v>
+        <v>0.9824833979485639</v>
       </c>
       <c r="C13">
-        <v>0.9192847245984367</v>
+        <v>0.9824833831784882</v>
       </c>
       <c r="D13">
-        <v>0.973884321589531</v>
+        <v>0.9824833949945486</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9840570443352523</v>
+        <v>0.9824833979485639</v>
       </c>
       <c r="C14">
-        <v>0.9801783193068607</v>
+        <v>0.9824833979485639</v>
       </c>
       <c r="D14">
-        <v>0.9812980374971361</v>
+        <v>0.9824833979485638</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9840721810587285</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="C15">
-        <v>0.9801858727237819</v>
+        <v>0.9824833979485639</v>
       </c>
       <c r="D15">
-        <v>0.9820737840016616</v>
+        <v>0.9824834001640752</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9840721810587285</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="C16">
-        <v>0.9801783193068607</v>
+        <v>0.9824833979485639</v>
       </c>
       <c r="D16">
-        <v>0.983237407488106</v>
+        <v>0.9824834023795864</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9840721810587285</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="C17">
-        <v>0.5505701189587389</v>
+        <v>0.9815156646812639</v>
       </c>
       <c r="D17">
-        <v>0.902396411426164</v>
+        <v>0.9823866312683679</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9840721810587285</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="C18">
-        <v>0.984072062802625</v>
+        <v>0.982482460048976</v>
       </c>
       <c r="D18">
-        <v>0.9840721662767153</v>
+        <v>0.9824833108051392</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9840721810587285</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="C19">
-        <v>0.9840721810587285</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="D19">
-        <v>0.9840721810587285</v>
+        <v>0.9824834053336018</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9843143844668314</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C20">
-        <v>0.9840646126824385</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="D20">
-        <v>0.9841198649027201</v>
+        <v>0.9824834171496628</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9996332806593549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C21">
-        <v>0.8639779155119033</v>
+        <v>0.9824834053336017</v>
       </c>
       <c r="D21">
-        <v>0.9737518645719691</v>
+        <v>0.9824834644139069</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9996332806593549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C22">
-        <v>0.9840721810587285</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D22">
-        <v>0.9904540564670071</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9996332806593549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C23">
-        <v>0.9843143844668314</v>
+        <v>0.982241545458442</v>
       </c>
       <c r="D23">
-        <v>0.9980030137416358</v>
+        <v>0.9824593256906349</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9996337574091296</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C24">
-        <v>0.9957315616673801</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D24">
-        <v>0.9992430137827768</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C25">
-        <v>0.9381217659818273</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D25">
-        <v>0.9934946207821461</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C26">
-        <v>0.9996337574091296</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D26">
-        <v>0.9996947832502213</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C27">
-        <v>0.9382400029667377</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D27">
-        <v>0.9936038455661367</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C28">
-        <v>0.9919595218021044</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D28">
-        <v>0.9989761565234467</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C29">
-        <v>0.9382400029667377</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D29">
-        <v>0.9874526478663979</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C30">
-        <v>0.5623168601965756</v>
+        <v>0.9819995972249943</v>
       </c>
       <c r="D30">
-        <v>0.9439038747658047</v>
+        <v>0.9824351308672903</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C31">
-        <v>0.9919595218021044</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D31">
-        <v>0.9989759896509088</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C32">
-        <v>0.5623168601965756</v>
+        <v>0.9824816329253018</v>
       </c>
       <c r="D32">
-        <v>0.943904065477288</v>
+        <v>0.9824833344373209</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C33">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D33">
-        <v>0.9997558090913129</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C34">
-        <v>0.9687537654035705</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D34">
-        <v>0.9958759819533546</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C35">
-        <v>0.9997558090913128</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D35">
-        <v>0.9997558269705232</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C36">
-        <v>0.9997253550687333</v>
+        <v>0.9824230261913017</v>
       </c>
       <c r="D36">
-        <v>0.9997528113669489</v>
+        <v>0.982477473763921</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C37">
-        <v>0.9996948419144474</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D37">
-        <v>0.9997497540917838</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C38">
-        <v>0.7654113867616275</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D38">
-        <v>0.9747620676358002</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C39">
-        <v>0.9997244015256133</v>
+        <v>0.982241545458442</v>
       </c>
       <c r="D39">
-        <v>0.9997527219723737</v>
+        <v>0.9824593256906349</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C40">
-        <v>0.9919595514843728</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D40">
-        <v>0.9989762280286445</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C41">
-        <v>0.878677377717878</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D41">
-        <v>0.9873551581305067</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C42">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D42">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9997558686886805</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C43">
-        <v>0.9382400607014603</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D43">
-        <v>0.9931650851052856</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9999999944120646</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C44">
-        <v>0.9997558537893384</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D44">
-        <v>0.9997802797710846</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9999999944120646</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C45">
-        <v>0.9997553919097877</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D45">
-        <v>0.9998748321379594</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9999999944120646</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C46">
-        <v>0.9999923650320994</v>
+        <v>0.9824230261913017</v>
       </c>
       <c r="D46">
-        <v>0.999999229983952</v>
+        <v>0.982477473763921</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9999999944120646</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C47">
-        <v>0.9960975591166132</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D47">
-        <v>0.9992195073529743</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9999999944120646</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C48">
-        <v>0.9980478230900207</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D48">
-        <v>0.9998036328725016</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9999999944120646</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C49">
-        <v>0.9999999348074209</v>
+        <v>0.9824230261913017</v>
       </c>
       <c r="D49">
-        <v>0.9999999884516001</v>
+        <v>0.982477473763921</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9999999944120646</v>
+        <v>0.9824986481109779</v>
       </c>
       <c r="C50">
-        <v>0.5624999954598024</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D50">
-        <v>0.8687498039915684</v>
+        <v>0.9824850359558885</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C51">
-        <v>0.9998779278250822</v>
+        <v>0.9824832871729987</v>
       </c>
       <c r="D51">
-        <v>0.9999875973910779</v>
+        <v>0.9824834998620906</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C52">
-        <v>0.5624999982537702</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D52">
-        <v>0.9327148635553385</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C53">
-        <v>0.9384765606391738</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D53">
-        <v>0.9876937814118719</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C54">
-        <v>0.9960975628346276</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D54">
-        <v>0.999609563872253</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C55">
-        <v>0.9384765606391738</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D55">
-        <v>0.9784301724406987</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C56">
-        <v>0.9384765606391738</v>
+        <v>0.9786154512005844</v>
       </c>
       <c r="D56">
-        <v>0.9907348614188095</v>
+        <v>0.9820967162648492</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C57">
-        <v>0.9960975628346276</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D57">
-        <v>0.9996095579118454</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C58">
-        <v>0.9999847394065</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D58">
-        <v>0.9999984689115081</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C59">
-        <v>0.2499999986030161</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D59">
-        <v>0.9249023657757789</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C60">
-        <v>0.9689941387628096</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D60">
-        <v>0.996899408847139</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C61">
-        <v>0.9960975628346276</v>
+        <v>0.9824835087241354</v>
       </c>
       <c r="D61">
-        <v>0.9992195077240481</v>
+        <v>0.9824835220172042</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C62">
-        <v>0.8789062481446308</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D62">
-        <v>0.987878410518897</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C63">
-        <v>0.9999999683350327</v>
+        <v>0.9824532746099263</v>
       </c>
       <c r="D63">
-        <v>0.9999999921768904</v>
+        <v>0.9824804986057833</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C64">
-        <v>0.968994135095727</v>
+        <v>0.9823625307510366</v>
       </c>
       <c r="D64">
-        <v>0.9968992207258907</v>
+        <v>0.9824714242198944</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C65">
-        <v>0.999755872413516</v>
+        <v>0.9824230261913017</v>
       </c>
       <c r="D65">
-        <v>0.9999721523610787</v>
+        <v>0.9824653743033389</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C66">
-        <v>0.9922027569264458</v>
+        <v>0.2412804542893692</v>
       </c>
       <c r="D66">
-        <v>0.9992183666736338</v>
+        <v>0.9083632165737276</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C67">
-        <v>0.9999923687573755</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D67">
-        <v>0.9999982785463544</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C68">
-        <v>0.999755872413516</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D68">
-        <v>0.9999755378812608</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C69">
-        <v>0.9384765606391738</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D69">
-        <v>0.9938476543875367</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C70">
-        <v>0.5624999982537702</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D70">
-        <v>0.9562497835723669</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C71">
-        <v>0.5624999982537702</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D71">
-        <v>0.9561523657408543</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C72">
-        <v>0.9999980907896315</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D72">
-        <v>0.9999998074025825</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C73">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D73">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.9999999981373549</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="C74">
-        <v>0.8789062481446308</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D74">
-        <v>0.9878906227655534</v>
+        <v>0.982483523494212</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C75">
-        <v>0.9999998789280687</v>
+        <v>0.2412804542893692</v>
       </c>
       <c r="D75">
-        <v>0.9999999858438973</v>
+        <v>0.9099180748857242</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C76">
-        <v>0.9844360332937185</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D76">
-        <v>0.9984434109181735</v>
+        <v>0.9871480984302016</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C77">
-        <v>0.9999990444632658</v>
+        <v>0.982483523494212</v>
       </c>
       <c r="D77">
-        <v>0.999999902769946</v>
+        <v>0.9949040977481634</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C78">
-        <v>0.9999999906867743</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="D78">
-        <v>0.9999999973922968</v>
+        <v>0.9980321066141773</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C79">
-        <v>0.9990236740559344</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="D79">
-        <v>0.9999023657292128</v>
+        <v>0.9980321066141773</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C80">
-        <v>0.9844360332937185</v>
+        <v>0.7639032142220171</v>
       </c>
       <c r="D80">
-        <v>0.9984432201836284</v>
+        <v>0.9746192173749613</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C81">
-        <v>0.9999389639124274</v>
+        <v>0.2490165373947826</v>
       </c>
       <c r="D81">
-        <v>0.9999938947148621</v>
+        <v>0.9231305496922377</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C82">
-        <v>0.9995117764919997</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="D82">
-        <v>0.9999488871617359</v>
+        <v>0.9980321066141773</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C83">
-        <v>0.9999961834437272</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="D83">
-        <v>0.9999996166679921</v>
+        <v>0.9980321066141773</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="C84">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="D84">
-        <v>0.9999999981373549</v>
+        <v>0.9980321066141773</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C85">
-        <v>0.9999389639124274</v>
+        <v>0.5610243218880646</v>
       </c>
       <c r="D85">
-        <v>0.9999923688417767</v>
+        <v>0.9543328525241715</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C86">
-        <v>0.2499999986030161</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="D86">
-        <v>0.889453123187559</v>
+        <v>0.998036679761994</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C87">
-        <v>0.8789062481446308</v>
+        <v>0.9980321066141773</v>
       </c>
       <c r="D87">
-        <v>0.9861359577633324</v>
+        <v>0.9980443016750218</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C88">
-        <v>0.9999389639124274</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="D88">
-        <v>0.9999938947148621</v>
+        <v>0.998047350440233</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C89">
-        <v>0.9989016633501256</v>
+        <v>0.9902577404865145</v>
       </c>
       <c r="D89">
-        <v>0.9996704977011859</v>
+        <v>0.9972683890726961</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C90">
-        <v>0.8789062481446308</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="D90">
-        <v>0.9878906216479664</v>
+        <v>0.998047350440233</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C91">
-        <v>0.8789062481446308</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="D91">
-        <v>0.9863219901926769</v>
+        <v>0.998047350440233</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9999999981373549</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="C92">
-        <v>0.9999999385327111</v>
+        <v>0.9979254030914169</v>
       </c>
       <c r="D92">
-        <v>0.9999999906867745</v>
+        <v>0.9980351557053513</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9999999981373549</v>
+        <v>0.9999995213002535</v>
       </c>
       <c r="C93">
-        <v>0.9844360332937185</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="D93">
-        <v>0.9984374982304984</v>
+        <v>0.998242567526235</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9999999981373549</v>
+        <v>0.9999995213002535</v>
       </c>
       <c r="C94">
-        <v>0.5624999982537702</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="D94">
-        <v>0.9124999981606379</v>
+        <v>0.998242567526235</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9999999981373549</v>
+        <v>0.9999995213002535</v>
       </c>
       <c r="C95">
-        <v>0.9384765606391738</v>
+        <v>0.998047350440233</v>
       </c>
       <c r="D95">
-        <v>0.9875946264950471</v>
+        <v>0.9986330016982391</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1721,10 +1721,10 @@
         <v>0.9999999981373549</v>
       </c>
       <c r="C96">
-        <v>0.9999961834437272</v>
+        <v>0.9975596057484523</v>
       </c>
       <c r="D96">
-        <v>0.9999992344535713</v>
+        <v>0.9991211502114835</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1735,10 +1735,10 @@
         <v>0.9999999981373549</v>
       </c>
       <c r="C97">
-        <v>0.7656249981664587</v>
+        <v>0.999999506399096</v>
       </c>
       <c r="D97">
-        <v>0.9531249981431756</v>
+        <v>0.9999997090548625</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1749,10 +1749,10 @@
         <v>0.9999999981373549</v>
       </c>
       <c r="C98">
-        <v>0.9384765606391738</v>
+        <v>0.9999389639124274</v>
       </c>
       <c r="D98">
-        <v>0.9938453655764533</v>
+        <v>0.9999938947148621</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1763,10 +1763,10 @@
         <v>0.9999999981373549</v>
       </c>
       <c r="C99">
-        <v>0.9999999981373549</v>
+        <v>0.9384765606391738</v>
       </c>
       <c r="D99">
-        <v>0.9999999981373549</v>
+        <v>0.9876953106377186</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1777,10 +1777,10 @@
         <v>0.9999999981373549</v>
       </c>
       <c r="C100">
-        <v>0.9999389639124274</v>
+        <v>0.9384765606391738</v>
       </c>
       <c r="D100">
-        <v>0.9999912214512733</v>
+        <v>0.9938476543875367</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1791,10 +1791,10 @@
         <v>0.9999999981373549</v>
       </c>
       <c r="C101">
-        <v>0.9999923687573755</v>
+        <v>0.9999999981373549</v>
       </c>
       <c r="D101">
-        <v>0.9999992292388924</v>
+        <v>0.9999999981373549</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1805,10 +1805,10 @@
         <v>0.9999999981373549</v>
       </c>
       <c r="C102">
-        <v>0.9999999906867743</v>
+        <v>0.9999999981373549</v>
       </c>
       <c r="D102">
-        <v>0.9999999973922968</v>
+        <v>0.9999999981373549</v>
       </c>
     </row>
   </sheetData>
